--- a/results/descriptive_statistics.xlsx
+++ b/results/descriptive_statistics.xlsx
@@ -617,19 +617,19 @@
         <v>2798</v>
       </c>
       <c r="D4" t="n">
-        <v>26.41956413004829</v>
+        <v>26.05193919343433</v>
       </c>
       <c r="E4" t="n">
-        <v>15.51650573971546</v>
+        <v>15.29439420494566</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.9497446270443026</v>
       </c>
       <c r="G4" t="n">
-        <v>17.61993510736059</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>22.95375715481205</v>
+        <v>22.16989285697366</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
@@ -638,10 +638,10 @@
         <v>182</v>
       </c>
       <c r="K4" t="n">
-        <v>3.011866768321068</v>
+        <v>3.043281450982875</v>
       </c>
       <c r="L4" t="n">
-        <v>16.91649525611243</v>
+        <v>17.47739465223725</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>

--- a/results/descriptive_statistics.xlsx
+++ b/results/descriptive_statistics.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>typ</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -522,34 +522,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D2" t="n">
-        <v>60.8032589744971</v>
+        <v>60.26</v>
       </c>
       <c r="E2" t="n">
-        <v>16.24943448434961</v>
+        <v>17.13</v>
       </c>
       <c r="F2" t="n">
-        <v>7.665565957865772</v>
+        <v>11.42</v>
       </c>
       <c r="G2" t="n">
-        <v>49.77315198015217</v>
+        <v>48.54</v>
       </c>
       <c r="H2" t="n">
-        <v>61.03562481695751</v>
+        <v>60.28</v>
       </c>
       <c r="I2" t="n">
-        <v>72.18529201639411</v>
+        <v>72.3</v>
       </c>
       <c r="J2" t="n">
-        <v>119.8211934175928</v>
+        <v>121.27</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.06778977421399157</v>
+        <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.004378062920812109</v>
+        <v>-0.06</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -568,34 +568,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D3" t="n">
-        <v>129.9339716312057</v>
+        <v>127.96</v>
       </c>
       <c r="E3" t="n">
-        <v>76.07085112463588</v>
+        <v>76.39</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="G3" t="n">
-        <v>64.23333333333331</v>
+        <v>63.75</v>
       </c>
       <c r="H3" t="n">
-        <v>123.7166666666665</v>
+        <v>122.12</v>
       </c>
       <c r="I3" t="n">
-        <v>188.583333333333</v>
+        <v>191.82</v>
       </c>
       <c r="J3" t="n">
         <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2769223329240749</v>
+        <v>0.27</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.8825956353298361</v>
+        <v>-0.86</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -614,34 +614,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2798</v>
+        <v>868</v>
       </c>
       <c r="D4" t="n">
-        <v>26.05193919343433</v>
+        <v>25.82</v>
       </c>
       <c r="E4" t="n">
-        <v>15.29439420494566</v>
+        <v>15.98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9497446270443026</v>
+        <v>0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>16.43</v>
       </c>
       <c r="H4" t="n">
-        <v>22.16989285697366</v>
+        <v>21.26</v>
       </c>
       <c r="I4" t="n">
         <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>182</v>
+        <v>139.95</v>
       </c>
       <c r="K4" t="n">
-        <v>3.043281450982875</v>
+        <v>2.61</v>
       </c>
       <c r="L4" t="n">
-        <v>17.47739465223725</v>
+        <v>11.17</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -660,34 +660,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2819</v>
+        <v>874</v>
       </c>
       <c r="D5" t="n">
-        <v>3.98646366087265</v>
+        <v>3.94</v>
       </c>
       <c r="E5" t="n">
-        <v>1.15992346897757</v>
+        <v>1.18</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.044</v>
+        <v>3.04</v>
       </c>
       <c r="H5" t="n">
         <v>4.04</v>
       </c>
       <c r="I5" t="n">
-        <v>5.041</v>
+        <v>5.04</v>
       </c>
       <c r="J5" t="n">
-        <v>6.36</v>
+        <v>6.3</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.07016160468672483</v>
+        <v>-0.11</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3599822582535515</v>
+        <v>-0.33</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -706,34 +706,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D6" t="n">
-        <v>116.6297517730496</v>
+        <v>114.78</v>
       </c>
       <c r="E6" t="n">
-        <v>77.41965172407446</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G6" t="n">
-        <v>47.9</v>
+        <v>46.13</v>
       </c>
       <c r="H6" t="n">
-        <v>109</v>
+        <v>104.03</v>
       </c>
       <c r="I6" t="n">
-        <v>176.366666666667</v>
+        <v>174.75</v>
       </c>
       <c r="J6" t="n">
         <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3924738780065563</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8027447575707116</v>
+        <v>-0.72</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2108</v>
+        <v>669</v>
       </c>
       <c r="D7" t="n">
-        <v>1.721062618595825</v>
+        <v>1.71</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6343979502232293</v>
+        <v>0.65</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3337131813653115</v>
+        <v>0.25</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3440886984529743</v>
+        <v>0.23</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2709</v>
+        <v>835</v>
       </c>
       <c r="D8" t="n">
-        <v>1.848652639350314</v>
+        <v>1.85</v>
       </c>
       <c r="E8" t="n">
-        <v>3.642739667189371</v>
+        <v>3.72</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>3.506223915477394</v>
+        <v>3.33</v>
       </c>
       <c r="L8" t="n">
-        <v>16.41478455482306</v>
+        <v>13.39</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D9" t="n">
-        <v>2.554255319148936</v>
+        <v>2.56</v>
       </c>
       <c r="E9" t="n">
-        <v>1.23888444598796</v>
+        <v>1.24</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2345870243401152</v>
+        <v>0.18</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.8666539520334098</v>
+        <v>-0.9</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2646</v>
+        <v>817</v>
       </c>
       <c r="D10" t="n">
-        <v>5.605064247921391</v>
+        <v>5.48</v>
       </c>
       <c r="E10" t="n">
-        <v>3.782573320128328</v>
+        <v>3.34</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
-        <v>4.517473651737223</v>
+        <v>1.38</v>
       </c>
       <c r="L10" t="n">
-        <v>66.29193497373994</v>
+        <v>3.48</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -948,11 +948,11 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>1740</v>
+        <v>694</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MB-0053</t>
+          <t>MB-0226</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'MB-7122': 4, 'MB-7267': 4, 'MB-0263': 4, 'MB-4825': 4, 'MB-3978': 4, 'MB-3470': 4, 'MB-4146': 4, 'MB-4992': 4, 'MB-4644': 4, 'MB-0615': 4, 'MB-0138': 4, 'MB-2827': 4, 'MB-7118': 4, 'MB-4796': 4, 'MB-4351': 4, 'MB-2970': 4, 'MB-0443': 4, 'MB-7075': 4, 'MB-0321': 4, 'MB-6263': 4, 'MB-4722': 4, 'MB-4718': 4, 'MB-5648': 4, 'MB-5629': 4, 'MB-0895': 4, 'MB-7225': 4, 'MB-4853': 4, 'MB-0379': 4, 'MB-4978': 4, 'MB-0564': 4, 'MB-2754': 4, 'MB-3576': 4, 'MB-2932': 4, 'MB-2840': 4, 'MB-2760': 4, 'MB-0273': 4, 'MB-5640': 4, 'MB-0261': 4, 'MB-4289': 4, 'MB-5552': 4, 'MB-5227': 4, 'MB-5653': 4, 'MB-5066': 4, 'MB-0358': 4, 'MB-0226': 4, 'MB-3854': 4, 'MB-6053': 4, 'MB-0371': 4, 'MB-4832': 4, 'MB-0312': 4, 'MB-0435': 4, 'MB-0184': 4, 'MB-7132': 4, 'MB-3500': 4, 'MB-4640': 4, 'MB-0489': 4, 'MB-0519': 4, 'MB-7066': 4, 'MB-0290': 4, 'MB-0497': 4, 'MB-0272': 4, 'MB-7216': 4, 'MB-0421': 4, 'MB-5322': 4, 'MB-5576': 4, 'MB-3614': 4, 'MB-0543': 4, 'MB-5327': 4, 'MB-4900': 4, 'MB-0066': 4, 'MB-0583': 4, 'MB-4865': 4, 'MB-0634': 4, 'MB-7277': 4, 'MB-0658': 4, 'MB-2994': 4, 'MB-7080': 4, 'MB-0244': 4, 'MB-4966': 4, 'MB-4860': 4, 'MB-2753': 4, 'MB-0359': 4, 'MB-0116': 4, 'MB-5417': 4, 'MB-5236': 4, 'MB-3487': 4, 'MB-3781': 4, 'MB-2730': 4, 'MB-5458': 4, 'MB-7232': 4, 'MB-0404': 4, 'MB-7049': 4, 'MB-5100': 4, 'MB-0081': 4, 'MB-5124': 4, 'MB-7148': 4, 'MB-0142': 4, 'MB-5622': 4, 'MB-0218': 4, 'MB-7219': 4, 'MB-5589': 4, 'MB-3371': 4, 'MB-0145': 4, 'MB-3026': 4, 'MB-0364': 4, 'MB-0578': 4, 'MB-5325': 4, 'MB-2951': 4, 'MB-4949': 4, 'MB-0412': 4, 'MB-0438': 4, 'MB-0207': 4, 'MB-4618': 4, 'MB-0310': 4, 'MB-2763': 4, 'MB-5422': 4, 'MB-7032': 4, 'MB-0396': 4, 'MB-7161': 4, 'MB-0256': 4, 'MB-7262': 4, 'MB-6297': 4, 'MB-0313': 4, 'MB-5624': 4, 'MB-2769': 4, 'MB-0445': 4, 'MB-0140': 4, 'MB-3058': 4, 'MB-0636': 4, 'MB-2984': 4, 'MB-2536': 4, 'MB-0292': 4, 'MB-0455': 4, 'MB-0624': 4, 'MB-0641': 4, 'MB-4442': 4, 'MB-4005': 4, 'MB-4952': 4, 'MB-5460': 4, 'MB-0544': 4, 'MB-5139': 4, 'MB-6019': 4, 'MB-7238': 4, 'MB-7127': 4, 'MB-0294': 4, 'MB-0901': 4, 'MB-4661': 4, 'MB-7254': 4, 'MB-5186': 4, 'MB-0202': 4, 'MB-0053': 4, 'MB-3866': 4, 'MB-0657': 4, 'MB-7124': 4, 'MB-7123': 4, 'MB-2791': 4, 'MB-5116': 4, 'MB-3824': 4, 'MB-0496': 4, 'MB-0197': 4, 'MB-5484': 4, 'MB-4934': 4, 'MB-5049': 4, 'MB-2610': 4, 'MB-6059': 4, 'MB-5409': 4, 'MB-4762': 4, 'MB-4395': 4, 'MB-7256': 4, 'MB-5592': 4, 'MB-3547': 4, 'MB-4929': 4, 'MB-2867': 4, 'MB-0111': 4, 'MB-0275': 4, 'MB-4746': 4, 'MB-7007': 4, 'MB-5062': 4, 'MB-0466': 4, 'MB-4254': 4, 'MB-6200': 4, 'MB-0513': 4, 'MB-3298': 4, 'MB-0655': 4, 'MB-0635': 4, 'MB-5119': 4, 'MB-5531': 4, 'MB-0546': 4, 'MB-6346': 4, 'MB-0616': 4, 'MB-4896': 4, 'MB-0339': 4, 'MB-5585': 4, 'MB-2842': 4, 'MB-2983': 4, 'MB-0366': 4, 'MB-3606': 4, 'MB-2845': 4, 'MB-4264': 4, 'MB-5299': 4, 'MB-6071': 4, 'MB-0320': 4, 'MB-3167': 4, 'MB-7094': 4, 'MB-4731': 4, 'MB-6189': 4, 'MB-3008': 4, 'MB-7155': 4, 'MB-7119': 4, 'MB-7235': 4, 'MB-5147': 4, 'MB-0646': 4, 'MB-0608': 4, 'MB-7241': 4, 'MB-5190': 4, 'MB-3437': 4, 'MB-5495': 4, 'MB-3235': 4, 'MB-5061': 4, 'MB-5226': 4, 'MB-6047': 4, 'MB-5572': 4, 'MB-0166': 4, 'MB-6154': 4, 'MB-3105': 4, 'MB-5498': 4, 'MB-6242': 4, 'MB-4866': 4, 'MB-0269': 4, 'MB-6055': 4, 'MB-5301': 4, 'MB-5471': 4, 'MB-0574': 4, 'MB-0414': 4, 'MB-7181': 4, 'MB-5497': 4, 'MB-6334': 4, 'MB-0282': 4, 'MB-0478': 4, 'MB-4666': 4, 'MB-2790': 4, 'MB-3865': 4, 'MB-5546': 4, 'MB-7022': 4, 'MB-0286': 4, 'MB-5440': 4, 'MB-4276': 4, 'MB-3462': 4, 'MB-5219': 4, 'MB-0599': 4, 'MB-4883': 4, 'MB-2854': 4, 'MB-0613': 4, 'MB-0588': 4, 'MB-7196': 4, 'MB-5329': 3, 'MB-5240': 3, 'MB-7076': 3, 'MB-3871': 3, 'MB-3121': 3, 'MB-2851': 3, 'MB-7198': 3, 'MB-2556': 3, 'MB-6069': 3, 'MB-7237': 3, 'MB-6051': 3, 'MB-5251': 3, 'MB-0266': 3, 'MB-5175': 3, 'MB-0586': 3, 'MB-0395': 3, 'MB-4770': 3, 'MB-3350': 3, 'MB-7289': 3, 'MB-6318': 3, 'MB-2977': 3, 'MB-7104': 3, 'MB-0301': 3, 'MB-0203': 3, 'MB-4912': 3, 'MB-7009': 3, 'MB-5465': 3, 'MB-3476': 3, 'MB-0363': 3, 'MB-7284': 3, 'MB-5389': 3, 'MB-5260': 3, 'MB-5331': 3, 'MB-2900': 3, 'MB-6337': 3, 'MB-7263': 3, 'MB-2669': 3, 'MB-0553': 3, 'MB-5238': 3, 'MB-7298': 3, 'MB-5277': 3, 'MB-7020': 3, 'MB-7266': 3, 'MB-0481': 3, 'MB-6254': 3, 'MB-4886': 3, 'MB-0350': 3, 'MB-0220': 3, 'MB-0442': 3, 'MB-4651': 3, 'MB-4012': 3, 'MB-5632': 3, 'MB-7231': 3, 'MB-6344': 3, 'MB-0495': 3, 'MB-2728': 3, 'MB-5623': 3, 'MB-4716': 3, 'MB-0392': 3, 'MB-7252': 3, 'MB-0234': 3, 'MB-0869': 3, 'MB-0591': 3, 'MB-7026': 3, 'MB-6044': 3, 'MB-3031': 3, 'MB-5043': 3, 'MB-4079': 3, 'MB-0425': 3, 'MB-4879': 3, 'MB-5654': 3, 'MB-4925': 3, 'MB-3386': 3, 'MB-7073': 3, 'MB-0642': 3, 'MB-5381': 3, 'MB-5485': 3, 'MB-5201': 3, 'MB-0872': 3, 'MB-7253': 3, 'MB-0581': 3, 'MB-4882': 3, 'MB-0405': 3, 'MB-6077': 3, 'MB-6014': 3, 'MB-5163': 3, 'MB-5519': 3, 'MB-5293': 3, 'MB-0626': 3, 'MB-0482': 3, 'MB-4627': 3, 'MB-4982': 3, 'MB-6007': 3, 'MB-6048': 3, 'MB-5364': 3, 'MB-4148': 3, 'MB-3545': 3, 'MB-4705': 3, 'MB-6100': 3, 'MB-0268': 3, 'MB-4139': 3, 'MB-5646': 3, 'MB-2614': 3, 'MB-5259': 3, 'MB-7099': 3, 'MB-0542': 3, 'MB-5457': 3, 'MB-0343': 3, 'MB-7050': 3, 'MB-0349': 3, 'MB-0188': 3, 'MB-5579': 3, 'MB-2850': 3, 'MB-5213': 3, 'MB-7130': 3, 'MB-6280': 3, 'MB-0347': 3, 'MB-0393': 3, 'MB-4838': 2, 'MB-4797': 2, 'MB-7186': 2, 'MB-0904': 2, 'MB-0569': 2, 'MB-0314': 2, 'MB-4876': 2, 'MB-7061': 2, 'MB-4869': 2, 'MB-4739': 2, 'MB-4974': 2, 'MB-0156': 2, 'MB-7035': 2, 'MB-2895': 2, 'MB-4623': 2, 'MB-0125': 2, 'MB-6237': 2, 'MB-6181': 2, 'MB-5459': 2, 'MB-7200': 2, 'MB-5057': 2, 'MB-3383': 2, 'MB-4348': 2, 'MB-5633': 2, 'MB-4145': 2, 'MB-5092': 2, 'MB-5473': 2, 'MB-5550': 2, 'MB-5084': 2, 'MB-6256': 2, 'MB-5011': 2, 'MB-7215': 2, 'MB-0120': 2, 'MB-6229': 2, 'MB-0417': 2, 'MB-4987': 2, 'MB-5261': 2, 'MB-4733': 2, 'MB-7030': 2, 'MB-4692': 2, 'MB-7173': 2, 'MB-6163': 2, 'MB-4602': 2, 'MB-7279': 2, 'MB-3453': 2, 'MB-6065': 2, 'MB-5414': 2, 'MB-3222': 2, 'MB-5105': 2, 'MB-4278': 2, 'MB-4681': 2, 'MB-5360': 2, 'MB-2835': 2, 'MB-3057': 2, 'MB-4956': 2, 'MB-0638': 2, 'MB-0468': 2, 'MB-0580': 2, 'MB-4324': 2, 'MB-6149': 2, 'MB-4970': 2, 'MB-7144': 2, 'MB-0551': 2, 'MB-4313': 2, 'MB-0112': 2, 'MB-5308': 2, 'MB-0148': 2, 'MB-0117': 2, 'MB-5215': 2, 'MB-0173': 2, 'MB-4745': 2, 'MB-4778': 2, 'MB-4802': 2, 'MB-0305': 2, 'MB-0341': 2, 'MB-4010': 2, 'MB-4126': 2, 'MB-4834': 2, 'MB-7158': 2, 'MB-3301': 1, 'MB-5401': 1, 'MB-0299': 1, 'MB-5157': 1, 'MB-7227': 1, 'MB-4981': 1, 'MB-0283': 1, 'MB-7269': 1, 'MB-3218': 1, 'MB-0663': 1, 'MB-3355': 1, 'MB-5366': 1, 'MB-5558': 1, 'MB-4999': 1, 'MB-0175': 1, 'MB-0064': 1, 'MB-3228': 1, 'MB-0458': 1, 'MB-7069': 1, 'MB-4822': 1, 'MB-4578': 1, 'MB-2939': 1, 'MB-4941': 1, 'MB-4750': 1, 'MB-5472': 1, 'MB-3060': 1, 'MB-5403': 1, 'MB-4222': 1, 'MB-4911': 1, 'MB-4698': 1, 'MB-6141': 1, 'MB-5334': 1, 'MB-0467': 1, 'MB-5184': 1, 'MB-5454': 1, 'MB-5384': 1, 'MB-5425': 1, 'MB-6058': 1, 'MB-2929': 1, 'MB-5656': 1, 'MB-5338': 1, 'MB-6207': 1, 'MB-4674': 1, 'MB-2896': 1, 'MB-3526': 1, 'MB-2643': 1, 'MB-4806': 1, 'MB-0660': 1, 'MB-0259': 1, 'MB-3548': 1, 'MB-7195': 1, 'MB-5013': 1, 'MB-5287': 1, 'MB-4878': 1, 'MB-0288': 1, 'MB-4704': 1, 'MB-5225': 1, 'MB-0319': 1, 'MB-2963': 1, 'MB-4426': 1, 'MB-0235': 1, 'MB-0385': 1, 'MB-5284': 1, 'MB-4715': 1, 'MB-0309': 1, 'MB-3295': 1, 'MB-0035': 1, 'MB-5270': 1, 'MB-5625': 1, 'MB-5505': 1, 'MB-4671': 1, 'MB-2931': 1, 'MB-5135': 1, 'MB-0151': 1, 'MB-6024': 1, 'MB-6169': 1, 'MB-3272': 1, 'MB-4829': 1, 'MB-7100': 1, 'MB-5278': 1, 'MB-5349': 1, 'MB-6008': 1, 'MB-5635': 1, 'MB-7152': 1, 'MB-3275': 1, 'MB-5296': 1, 'MB-7135': 1, 'MB-0573': 1, 'MB-5212': 1, 'MB-0362': 1, 'MB-7207': 1, 'MB-4685': 1, 'MB-3436': 1, 'MB-5377': 1, 'MB-6211': 1, 'MB-5081': 1, 'MB-5152': 1, 'MB-0373': 1, 'MB-6184': 1, 'MB-0558': 1, 'MB-5312': 1, 'MB-4298': 1, 'MB-2927': 1, 'MB-4318': 1, 'MB-5040': 1, 'MB-0465': 1, 'MB-3536': 1, 'MB-4622': 1, 'MB-0492': 1, 'MB-4688': 1, 'MB-6305': 1, 'MB-0579': 1, 'MB-5358': 1, 'MB-3050': 1, 'MB-2513': 1, 'MB-5211': 1, 'MB-5393': 1, 'MB-0191': 1, 'MB-7182': 1, 'MB-0351': 1, 'MB-4962': 1, 'MB-2742': 1, 'MB-5562': 1, 'MB-7106': 1, 'MB-3063': 1, 'MB-4333': 1, 'MB-6001': 1, 'MB-3046': 1, 'MB-4323': 1, 'MB-3754': 1, 'MB-4846': 1, 'MB-6125': 1, 'MB-5483': 1, 'MB-5015': 1, 'MB-6039': 1, 'MB-5196': 1, 'MB-7116': 1, 'MB-2964': 1, 'MB-5588': 1, 'MB-4564': 1, 'MB-4003': 1, 'MB-7194': 1, 'MB-0360': 1, 'MB-0401': 1, 'MB-5427': 1, 'MB-3492': 1, 'MB-5166': 1, 'MB-5378': 1, 'MB-5492': 1, 'MB-0661': 1, 'MB-5540': 1, 'MB-0448': 1, 'MB-6204': 1, 'MB-7078': 1, 'MB-5221': 1, 'MB-5481': 1, 'MB-0079': 1, 'MB-2919': 1, 'MB-7163': 1, 'MB-2952': 1, 'MB-5033': 1, 'MB-3253': 1, 'MB-5434': 1, 'MB-6083': 1, 'MB-5188': 1, 'MB-0506': 1, 'MB-5053': 1, 'MB-4950': 1, 'MB-2960': 1, 'MB-5651': 1, 'MB-0324': 1, 'MB-7111': 1, 'MB-5490': 1, 'MB-4235': 1, 'MB-0346': 1, 'MB-6022': 1, 'MB-0494': 1, 'MB-4281': 1, 'MB-4643': 1, 'MB-5130': 1, 'MB-4368': 1, 'MB-4818': 1, 'MB-0576': 1, 'MB-4119': 1, 'MB-0102': 1, 'MB-5429': 1, 'MB-5433': 1, 'MB-6194': 1, 'MB-6105': 1, 'MB-5446': 1, 'MB-6300': 1, 'MB-7046': 1, 'MB-5123': 1, 'MB-0454': 1, 'MB-0874': 1, 'MB-5565': 1, 'MB-4292': 1, 'MB-5058': 1, 'MB-5397': 1, 'MB-4994': 1, 'MB-0538': 1, 'MB-2944': 1, 'MB-6230': 1, 'MB-5350': 1, 'MB-4859': 1, 'MB-6251': 1, 'MB-4434': 1, 'MB-4000': 1, 'MB-4945': 1, 'MB-6224': 1, 'MB-7057': 1, 'MB-5204': 1, 'MB-5305': 1, 'MB-3357': 1, 'MB-5145': 1, 'MB-7055': 1, 'MB-4871': 1, 'MB-6113': 1, 'MB-7243': 1, 'MB-3277': 1, 'MB-7011': 1, 'MB-3104': 1, 'MB-0095': 1, 'MB-0552': 1, 'MB-5098': 1, 'MB-2792': 1, 'MB-5652': 1, 'MB-5140': 1, 'MB-2781': 1, 'MB-5493': 1, 'MB-5575': 1, 'MB-5636': 1, 'MB-4800': 1, 'MB-0179': 1, 'MB-4791': 1, 'MB-5647': 1, 'MB-0434': 1, 'MB-6286': 1, 'MB-4827': 1, 'MB-0444': 1, 'MB-4752': 1, 'MB-0906': 1, 'MB-5370': 1, 'MB-4234': 1, 'MB-3271': 1, 'MB-7187': 1, 'MB-0134': 1, 'MB-5224': 1, 'MB-2849': 1, 'MB-7286': 1, 'MB-0593': 1, 'MB-5182': 1, 'MB-4303': 1, 'MB-4942': 1, 'MB-5018': 1, 'MB-4695': 1, 'MB-4969': 1, 'MB-5510': 1, 'MB-0020': 1, 'MB-5104': 1, 'MB-4616': 1, 'MB-3181': 1, 'MB-0028': 1, 'MB-0897': 1, 'MB-4741': 1, 'MB-5464': 1, 'MB-4357': 1, 'MB-5491': 1, 'MB-5120': 1, 'MB-4339': 1, 'MB-4001': 1, 'MB-6179': 1, 'MB-3083': 1, 'MB-2917': 1, 'MB-4601': 1, 'MB-4793': 1, 'MB-0582': 1, 'MB-0169': 1, 'MB-2953': 1, 'MB-4792': 1, 'MB-0667': 1, 'MB-5385': 1, 'MB-2517': 1, 'MB-7185': 1, 'MB-0131': 1, 'MB-0460': 1, 'MB-5426': 1, 'MB-7229': 1, 'MB-0317': 1, 'MB-7112': 1, 'MB-7292': 1, 'MB-7019': 1, 'MB-7027': 1, 'MB-3556': 1, 'MB-0302': 1, 'MB-0144': 1, 'MB-0585': 1, 'MB-0436': 1, 'MB-0322': 1, 'MB-0239': 1, 'MB-5072': 1, 'MB-3006': 1, 'MB-5229': 1, 'MB-5020': 1, 'MB-0036': 1, 'MB-5404': 1, 'MB-7093': 1, 'MB-3361': 1, 'MB-0211': 1, 'MB-6016': 1, 'MB-0361': 1, 'MB-3466': 1, 'MB-6026': 1, 'MB-5317': 1, 'MB-2617': 1, 'MB-4760': 1, 'MB-7149': 1, 'MB-5126': 1, 'MB-2904': 1, 'MB-3530': 1, 'MB-5513': 1, 'MB-0368': 1, 'MB-0189': 1, 'MB-0400': 1, 'MB-0652': 1, 'MB-0233': 1, 'MB-4794': 1, 'MB-0279': 1, 'MB-0311': 1, 'MB-5150': 1, 'MB-4213': 1, 'MB-0354': 1, 'MB-0422': 1, 'MB-0306': 1, 'MB-4790': 1, 'MB-6218': 1, 'MB-0539': 1, 'MB-2752': 1, 'MB-4360': 1, 'MB-7287': 1, 'MB-5272': 1, 'MB-0352': 1, 'MB-4331': 1, 'MB-0291': 1, 'MB-4529': 1, 'MB-6156': 1, 'MB-4691': 1, 'MB-5275': 1, 'MB-5577': 1, 'MB-4785': 1, 'MB-6232': 1, 'MB-2642': 1, 'MB-0384': 1, 'MB-5143': 1, 'MB-0342': 1, 'MB-0165': 1, 'MB-4374': 1, 'MB-0005': 1, 'MB-7217': 1, 'MB-7233': 1, 'MB-0257': 1, 'MB-0424': 1, 'MB-7296': 1, 'MB-6075': 1, 'MB-5453': 1, 'MB-4697': 1, 'MB-5176': 1, 'MB-5532': 1, 'MB-0463': 1, 'MB-7193': 1, 'MB-0071': 1, 'MB-4381': 1, 'MB-2772': 1, 'MB-5614': 1, 'MB-4091': 1, 'MB-6011': 1, 'MB-0333': 1, 'MB-6308': 1, 'MB-4687': 1, 'MB-3378': 1, 'MB-0146': 1, 'MB-5110': 1, 'MB-5191': 1, 'MB-3838': 1, 'MB-5127': 1, 'MB-3510': 1, 'MB-6183': 1, 'MB-5365': 1, 'MB-5267': 1, 'MB-7045': 1, 'MB-6187': 1, 'MB-5431': 1, 'MB-6124': 1, 'MB-7087': 1, 'MB-5620': 1, 'MB-5520': 1, 'MB-5266': 1, 'MB-5228': 1, 'MB-4416': 1, 'MB-3452': 1, 'MB-4046': 1, 'MB-7012': 1, 'MB-5638': 1, 'MB-5463': 1, 'MB-4641': 1, 'MB-5102': 1, 'MB-0178': 1, 'MB-5223': 1, 'MB-6206': 1, 'MB-5273': 1, 'MB-0601': 1, 'MB-6029': 1, 'MB-4421': 1, 'MB-5148': 1, 'MB-5313': 1, 'MB-6107': 1, 'MB-0550': 1, 'MB-6017': 1, 'MB-4672': 1, 'MB-6145': 1, 'MB-7208': 1, 'MB-5109': 1, 'MB-2632': 1, 'MB-4851': 1, 'MB-0328': 1, 'MB-5518': 1, 'MB-5298': 1, 'MB-4686': 1, 'MB-0083': 1, 'MB-4141': 1, 'MB-2923': 1, 'MB-7133': 1, 'MB-2821': 1, 'MB-4354': 1, 'MB-4140': 1, 'MB-7060': 1, 'MB-4944': 1, 'MB-0262': 1, 'MB-0170': 1, 'MB-5121': 1, 'MB-6281': 1, 'MB-7220': 1, 'MB-4654': 1, 'MB-4306': 1, 'MB-5258': 1, 'MB-5280': 1, 'MB-4233': 1, 'MB-0471': 1, 'MB-5253': 1, 'MB-4250': 1, 'MB-7212': 1, 'MB-5455': 1, 'MB-4996': 1, 'MB-0378': 1, 'MB-6185': 1, 'MB-4967': 1, 'MB-5177': 1, 'MB-5529': 1, 'MB-0526': 1, 'MB-5642': 1, 'MB-2778': 1, 'MB-3360': 1, 'MB-7054': 1, 'MB-4717': 1, 'MB-5315': 1, 'MB-4986': 1, 'MB-3005': 1, 'MB-5138': 1, 'MB-5591': 1, 'MB-4653': 1, 'MB-4293': 1, 'MB-2758': 1, 'MB-2745': 1, 'MB-6101': 1, 'MB-0205': 1, 'MB-5641': 1, 'MB-5616': 1, 'MB-5050': 1, 'MB-0611': 1, 'MB-0181': 1, 'MB-0531': 1, 'MB-2735': 1, 'MB-4723': 1, 'MB-7205': 1, 'MB-4782': 1, 'MB-5398': 1, 'MB-4593': 1, 'MB-5179': 1, 'MB-0453': 1, 'MB-0010': 1, 'MB-7201': 1, 'MB-2996': 1, 'MB-0201': 1, 'MB-7218': 1, 'MB-4743': 1, 'MB-0193': 1, 'MB-7141': 1, 'MB-5396': 1, 'MB-5435': 1, 'MB-4408': 1, 'MB-2834': 1, 'MB-4342': 1, 'MB-2848': 1, 'MB-6012': 1, 'MB-4904': 1, 'MB-4236': 1, 'MB-5167': 1, 'MB-2705': 1, 'MB-5178': 1, 'MB-0121': 1, 'MB-2779': 1, 'MB-3079': 1, 'MB-0154': 1, 'MB-4270': 1, 'MB-6135': 1, 'MB-4329': 1, 'MB-5369': 1, 'MB-0606': 1, 'MB-4965': 1, 'MB-5361': 1, 'MB-4679': 1, 'MB-6082': 1, 'MB-2712': 1, 'MB-7199': 1, 'MB-7234': 1, 'MB-7114': 1, 'MB-7089': 1, 'MB-5502': 1, 'MB-4665': 1, 'MB-0549': 1, 'MB-3379': 1, 'MB-5328': 1, 'MB-2786': 1, 'MB-0228': 1, 'MB-0631': 1, 'MB-3341': 1, 'MB-0480': 1, 'MB-3506': 1, 'MB-7268': 1, 'MB-3062': 1, 'MB-0535': 1, 'MB-5410': 1, 'MB-5136': 1, 'MB-7228': 1, 'MB-0607': 1, 'MB-7291': 1, 'MB-5158': 1, 'MB-6020': 1, 'MB-4814': 1, 'MB-6284': 1, 'MB-5045': 1, 'MB-2796': 1, 'MB-7131': 1, 'MB-6062': 1, 'MB-2916': 1, 'MB-3110': 1, 'MB-5525': 1, 'MB-6021': 1, 'MB-3850': 1, 'MB-4763': 1, 'MB-7059': 1, 'MB-0247': 1, 'MB-2801': 1, 'MB-0176': 1, 'MB-2999': 1, 'MB-0285': 1, 'MB-4696': 1, 'MB-3035': 1, 'MB-5351': 1, 'MB-3025': 1, 'MB-0420': 1, 'MB-0512': 1, 'MB-0510': 1, 'MB-3528': 1, 'MB-4858': 1, 'MB-0287': 1, 'MB-0609': 1, 'MB-6133': 1, 'MB-4649': 1, 'MB-0278': 1, 'MB-4390': 1, 'MB-6283': 1, 'MB-4744': 1, 'MB-0451': 1, 'MB-0590': 1, 'MB-7036': 1, 'MB-3049': 1, 'MB-5208': 1, 'MB-5499': 1, 'MB-0618': 1, 'MB-5527': 1, 'MB-5467': 1, 'MB-4998': 1, 'MB-0398': 1, 'MB-3388': 1, 'MB-4769': 1, 'MB-7171': 1, 'MB-0174': 1, 'MB-0594': 1, 'MB-0559': 1, 'MB-0122': 1, 'MB-5115': 1, 'MB-5302': 1, 'MB-7167': 1, 'MB-5144': 1, 'MB-6231': 1, 'MB-3707': 1, 'MB-3329': 1, 'MB-0200': 1, 'MB-4957': 1, 'MB-0545': 1, 'MB-3007': 1, 'MB-5185': 1, 'MB-5222': 1, 'MB-4993': 1, 'MB-4266': 1, 'MB-0209': 1, 'MB-0499': 1, 'MB-7145': 1, 'MB-5306': 1, 'MB-4758': 1, 'MB-4742': 1, 'MB-2969': 1, 'MB-4749': 1, 'MB-7278': 1, 'MB-5567': 1, 'MB-0149': 1, 'MB-7159': 1, 'MB-3748': 1, 'MB-0627': 1, 'MB-0411': 1, 'MB-6239': 1, 'MB-5324': 1, 'MB-5183': 1, 'MB-0221': 1, 'MB-4598': 1, 'MB-0110': 1, 'MB-0265': 1, 'MB-4675': 1, 'MB-0316': 1, 'MB-4977': 1, 'MB-4767': 1, 'MB-0882': 1, 'MB-0260': 1, 'MB-2858': 1, 'MB-0289': 1, 'MB-0532': 1, 'MB-5332': 1, 'MB-6178': 1, 'MB-6359': 1, 'MB-6226': 1, 'MB-0162': 1, 'MB-6330': 1, 'MB-5386': 1, 'MB-5395': 1, 'MB-5064': 1, 'MB-7010': 1, 'MB-5008': 1, 'MB-2613': 1, 'MB-5549': 1, 'MB-4757': 1, 'MB-7039': 1, 'MB-0399': 1, 'MB-0536': 1, 'MB-5209': 1, 'MB-0380': 1, 'MB-4011': 1, 'MB-0637': 1, 'MB-0124': 1, 'MB-5068': 1, 'MB-7092': 1, 'MB-7071': 1, 'MB-6108': 1, 'MB-0632': 1, 'MB-3211': 1, 'MB-3490': 1, 'MB-4274': 1, 'MB-5001': 1, 'MB-6068': 1, 'MB-0554': 1, 'MB-2744': 1, 'MB-6312': 1, 'MB-4862': 1, 'MB-7165': 1, 'MB-0222': 1, 'MB-0307': 1, 'MB-5044': 1, 'MB-0432': 1, 'MB-0304': 1, 'MB-0163': 1, 'MB-6098': 1, 'MB-3266': 1, 'MB-4937': 1, 'MB-2618': 1, 'MB-5233': 1, 'MB-4898': 1, 'MB-6097': 1, 'MB-4648': 1, 'MB-0662': 1, 'MB-5613': 1, 'MB-4899': 1, 'MB-0571': 1, 'MB-6085': 1, 'MB-0501': 1, 'MB-7164': 1, 'MB-6319': 1, 'MB-5421': 1, 'MB-0462': 1, 'MB-0876': 1, 'MB-5294': 1, 'MB-0153': 1, 'MB-0394': 1, 'MB-5441': 1, 'MB-5566': 1, 'MB-3823': 1, 'MB-2721': 1, 'MB-4764': 1, 'MB-7001': 1, 'MB-3254': 1, 'MB-5041': 1, 'MB-4908': 1, 'MB-4931': 1, 'MB-6006': 1, 'MB-3706': 1, 'MB-6317': 1, 'MB-5160': 1, 'MB-0885': 1, 'MB-2901': 1, 'MB-7172': 1, 'MB-7101': 1, 'MB-0159': 1, 'MB-0270': 1, 'MB-7168': 1, 'MB-4418': 1, 'MB-5474': 1, 'MB-3033': 1, 'MB-7249': 1, 'MB-4714': 1, 'MB-6080': 1, 'MB-5039': 1, 'MB-5232': 1, 'MB-4725': 1, 'MB-6329': 1, 'MB-0596': 1, 'MB-6217': 1, 'MB-5155': 1, 'MB-0402': 1, 'MB-4212': 1, 'MB-7038': 1, 'MB-0426': 1, 'MB-2966': 1, 'MB-5548': 1, 'MB-0500': 1, 'MB-6257': 1, 'MB-0484': 1, 'MB-4870': 1, 'MB-0056': 1, 'MB-0377': 1, 'MB-0649': 1, 'MB-2624': 1, 'MB-0891': 1, 'MB-7068': 1, 'MB-5255': 1, 'MB-5134': 1, 'MB-2844': 1, 'MB-2815': 1, 'MB-3153': 1, 'MB-0344': 1, 'MB-3842': 1, 'MB-5323': 1, 'MB-4127': 1, 'MB-0129': 1, 'MB-6302': 1, 'MB-0264': 1, 'MB-5197': 1, 'MB-4849': 1, 'MB-2708': 1, 'MB-5310': 1, 'MB-2616': 1, 'MB-0365': 1, 'MB-0541': 1, 'MB-0225': 1, 'MB-7244': 1, 'MB-5468': 1, 'MB-0238': 1, 'MB-5218': 1, 'MB-5113': 1, 'MB-5154': 1, 'MB-5268': 1, 'MB-3852': 1, 'MB-3702': 1, 'MB-3351': 1, 'MB-3582': 1, 'MB-5063': 1, 'MB-7058': 1, 'MB-2853': 1, 'MB-5450': 1, 'MB-6273': 1, 'MB-6212': 1, 'MB-3001': 1, 'MB-0308': 1, 'MB-0439': 1, 'MB-7084': 1, 'MB-0666': 1, 'MB-4660': 1, 'MB-5424': 1, 'MB-0429': 1, 'MB-7097': 1, 'MB-7095': 1, 'MB-0880': 1, 'MB-0619': 1, 'MB-2993': 1, 'MB-4603': 1, 'MB-0168': 1, 'MB-3439': 1, 'MB-5291': 1, 'MB-5413': 1, 'MB-2774': 1, 'MB-0147': 1, 'MB-7138': 1, 'MB-5475': 1, 'MB-6092': 1, 'MB-2847': 1, 'MB-7250': 1, 'MB-4017': 1, 'MB-0517': 1, 'MB-3479': 1, 'MB-3874': 1, 'MB-6042': 1, 'MB-7081': 1, 'MB-5511': 1, 'MB-5442': 1, 'MB-3395': 1, 'MB-5230': 1, 'MB-2833': 1, 'MB-0245': 1, 'MB-0214': 1, 'MB-0318': 1, 'MB-0060': 1, 'MB-0427': 1, 'MB-0610': 1, 'MB-7040': 1, 'MB-7065': 1, 'MB-7070': 1, 'MB-4843': 1, 'MB-3013': 1, 'MB-3252': 1, 'MB-0893': 1, 'MB-4721': 1, 'MB-0617': 1, 'MB-7041': 1, 'MB-4906': 1, 'MB-4801': 1, 'MB-5235': 1, 'MB-7189': 1, 'MB-3467': 1, 'MB-2820': 1, 'MB-2626': 1, 'MB-5394': 1, 'MB-4893': 1, 'MB-0014': 1, 'MB-4707': 1, 'MB-2797': 1, 'MB-0045': 1, 'MB-2771': 1, 'MB-0406': 1, 'MB-5060': 1, 'MB-6168': 1, 'MB-5601': 1, 'MB-0136': 1, 'MB-0570': 1, 'MB-0345': 1, 'MB-6223': 1, 'MB-4300': 1, 'MB-2793': 1, 'MB-6233': 1, 'MB-3797': 1, 'MB-0522': 1, 'MB-5444': 1, 'MB-0180': 1, 'MB-2750': 1, 'MB-5628': 1, 'MB-0280': 1, 'MB-4322': 1, 'MB-0502': 1, 'MB-6182': 1, 'MB-5065': 1, 'MB-5346': 1, 'MB-5408': 1, 'MB-4701': 1, 'MB-5341': 1, 'MB-0630': 1, 'MB-3037': 1, 'MB-0006': 1, 'MB-0048': 1, 'MB-5348': 1, 'MB-0507': 1, 'MB-6253': 1, 'MB-5407': 1, 'MB-6010': 1, 'MB-7056': 1, 'MB-0600': 1, 'MB-0113': 1, 'MB-2863': 1, 'MB-0449': 1, 'MB-0356': 1, 'MB-5097': 1, 'MB-7088': 1, 'MB-0413': 1, 'MB-5239': 1, 'MB-0152': 1, 'MB-0258': 1, 'MB-0160': 1, 'MB-0504': 1, 'MB-0295': 1, 'MB-0195': 1, 'MB-6164': 1, 'MB-5014': 1, 'MB-7082': 1, 'MB-6234': 1, 'MB-2645': 1, 'MB-6049': 1, 'MB-0584': 1, 'MB-0194': 1, 'MB-0232': 1, 'MB-7025': 1, 'MB-0171': 1, 'MB-0230': 1, 'MB-0475': 1, 'MB-0446': 1, 'MB-7174': 1, 'MB-0490': 1, 'MB-7005': 1, 'MB-0157': 1, 'MB-5118': 1, 'MB-6023': 1, 'MB-0516': 1, 'MB-2725': 1, 'MB-4375': 1, 'MB-0242': 1, 'MB-0248': 1, 'MB-7091': 1, 'MB-2686': 1, 'MB-3303': 1, 'MB-0540': 1, 'MB-2718': 1, 'MB-5559': 1, 'MB-3092': 1, 'MB-4328': 1, 'MB-3488': 1, 'MB-4310': 1, 'MB-7285': 1, 'MB-7000': 1, 'MB-7029': 1, 'MB-7013': 1, 'MB-7052': 1, 'MB-0126': 1, 'MB-4362': 1, 'MB-0215': 1, 'MB-0210': 1, 'MB-4633': 1, 'MB-4024': 1, 'MB-5551': 1, 'MB-0253': 1, 'MB-5420': 1, 'MB-7024': 1, 'MB-7260': 1, 'MB-0644': 1, 'MB-0521': 1, 'MB-0524': 1, 'MB-0503': 1, 'MB-0206': 1, 'MB-0374': 1, 'MB-3123': 1, 'MB-0293': 1, 'MB-0587': 1, 'MB-0054': 1, 'MB-4548': 1, 'MB-6245': 1, 'MB-5373': 1, 'MB-3344': 1, 'MB-5164': 1, 'MB-7037': 1, 'MB-4663': 1, 'MB-4737': 1, 'MB-0164': 1, 'MB-5530': 1, 'MB-0428': 1, 'MB-5070': 1, 'MB-7150': 1, 'MB-0050': 1, 'MB-5655': 1, 'MB-3016': 1, 'MB-2838': 1, 'MB-0605': 1, 'MB-3122': 1, 'MB-0367': 1, 'MB-5027': 1, 'MB-4282': 1, 'MB-5059': 1, 'MB-2823': 1, 'MB-4880': 1, 'MB-7276': 1, 'MB-2912': 1, 'MB-3711': 1, 'MB-4968': 1, 'MB-0472': 1, 'MB-7170': 1, 'MB-6036': 1, 'MB-7162': 1, 'MB-0327': 1, 'MB-4894': 1, 'MB-2990': 1, 'MB-3300': 1, 'MB-0000': 1, 'MB-3032': 1, 'MB-7014': 1, 'MB-0505': 1, 'MB-0410': 1, 'MB-0325': 1, 'MB-0452': 1, 'MB-0139': 1, 'MB-6160': 1, 'MB-4557': 1, 'MB-5054': 1, 'MB-6271': 1, 'MB-0227': 1, 'MB-7109': 1, 'MB-3525': 1, 'MB-0192': 1, 'MB-7157': 1, 'MB-2629': 1, 'MB-7102': 1, 'MB-0370': 1, 'MB-3430': 1, 'MB-3028': 1, 'MB-4332': 1, 'MB-3381': 1, 'MB-0437': 1, 'MB-0093': 1, 'MB-0423': 1, 'MB-5582': 1, 'MB-0431': 1, 'MB-4991': 1, 'MB-5339': 1, 'MB-7048': 1, 'MB-5602': 1, 'MB-0537': 1, 'MB-4771': 1, 'MB-4709': 1, 'MB-3067': 1, 'MB-4897': 1, 'MB-3292': 1, 'MB-7017': 1, 'MB-6314': 1, 'MB-4607': 1, 'MB-0199': 1, 'MB-0534': 1, 'MB-4784': 1, 'MB-4015': 1, 'MB-4343': 1, 'MB-5101': 1, 'MB-0664': 1, 'MB-6306': 1, 'MB-4872': 1, 'MB-0059': 1, 'MB-2947': 1, 'MB-5392': 1, 'MB-0172': 1, 'MB-0628': 1, 'MB-0639': 1, 'MB-6171': 1, 'MB-3088': 1, 'MB-0130': 1, 'MB-5131': 1, 'MB-6143': 1, 'MB-7028': 1, 'MB-0470': 1, 'MB-4621': 1, 'MB-0135': 1, 'MB-6144': 1, 'MB-0403': 1, 'MB-0603': 1, 'MB-3367': 1, 'MB-6052': 1, 'MB-7006': 1, 'MB-3165': 1, 'MB-3502': 1, 'MB-0198': 1, 'MB-4881': 1, 'MB-0476': 1, 'MB-5451': 1, 'MB-0284': 1, 'MB-3600': 1, 'MB-5405': 1, 'MB-7053': 1, 'MB-7015': 1, 'MB-5428': 1, 'MB-4732': 1, 'MB-0509': 1, 'MB-3382': 1, 'MB-0654': 1, 'MB-5161': 1, 'MB-0418': 1, 'MB-3567': 1, 'MB-5271': 1, 'MB-7280': 1, 'MB-0620': 1, 'MB-3840': 1, 'MB-6152': 1, 'MB-5117': 1, 'MB-6050': 1, 'MB-5599': 1, 'MB-5526': 1, 'MB-3102': 1, 'MB-0621': 1, 'MB-2857': 1, 'MB-4961': 1, 'MB-2819': 1, 'MB-7077': 1, 'MB-0514': 1, 'MB-0440': 1, 'MB-7295': 1, 'MB-7062': 1, 'MB-5004': 1, 'MB-7067': 1, 'MB-0107': 1, 'MB-3014': 1, 'MB-5583': 1, 'MB-3396': 1, 'MB-2795': 1, 'MB-0097': 1, 'MB-0231': 1, 'MB-6188': 1, 'MB-0389': 1, 'MB-5300': 1, 'MB-6228': 1, 'MB-4798': 1, 'MB-5172': 1, 'MB-7153': 1, 'MB-4935': 1, 'MB-5521': 1, 'MB-7031': 1, 'MB-7270': 1, 'MB-5412': 1, 'MB-2634': 1, 'MB-4867': 1, 'MB-4738': 1, 'MB-5590': 1, 'MB-0150': 1, 'MB-7083': 1, 'MB-0039': 1, 'MB-0614': 1, 'MB-4317': 1, 'MB-2711': 1, 'MB-2767': 1, 'MB-0381': 1, 'MB-5264': 1, 'MB-0155': 1, 'MB-7004': 1, 'MB-6131': 1, 'MB-5533': 1, 'MB-7151': 1, 'MB-7230': 1, 'MB-6116': 1, 'MB-0128': 1, 'MB-3459': 1, 'MB-7063': 1, 'MB-0575': 1, 'MB-7096': 1, 'MB-4839': 1, 'MB-0391': 1, 'MB-5489': 1, 'MB-6118': 1, 'MB-0315': 1, 'MB-0469': 1, 'MB-4724': 1, 'MB-5541': 1, 'MB-5137': 1, 'MB-4809': 1, 'MB-0375': 1, 'MB-0397': 1, 'MB-0068': 1, 'MB-5604': 1, 'MB-0650': 1, 'MB-7143': 1, 'MB-0114': 1, 'MB-4098': 1, 'MB-0525': 1, 'MB-0133': 1, 'MB-7044': 1, 'MB-4710': 1, 'MB-7293': 1, 'MB-0577': 1, 'MB-3297': 1, 'MB-0511': 1, 'MB-0002': 1, 'MB-0388': 1, 'MB-4930': 1, 'MB-0249': 1, 'MB-0158': 1, 'MB-0386': 1, 'MB-3429': 1, 'MB-4599': 1, 'MB-0592': 1, 'MB-5477': 1, 'MB-2971': 1, 'MB-0382': 1, 'MB-5281': 1, 'MB-5017': 1, 'MB-5079': 1, 'MB-7043': 1, 'MB-4779': 1, 'MB-3417': 1, 'MB-5605': 1, 'MB-4694': 1, 'MB-5418': 1, 'MB-0369': 1, 'MB-0479': 1, 'MB-0640': 1, 'MB-0899': 1, 'MB-3403': 1, 'MB-0303': 1, 'MB-0488': 1, 'MB-3450': 1, 'MB-4888': 1, 'MB-7090': 1, 'MB-0486': 1, 'MB-0340': 1, 'MB-0281': 1, 'MB-6195': 1, 'MB-4283': 1, 'MB-5626': 1, 'MB-5560': 1, 'MB-6248': 1, 'MB-5514': 1, 'MB-7137': 1, 'MB-5554': 1, 'MB-5162': 1, 'MB-6103': 1, 'MB-4820': 1, 'MB-0508': 1, 'MB-6328': 1, 'MB-2564': 1, 'MB-0623': 1, 'MB-0236': 1, 'MB-5199': 1, 'MB-7034': 1, 'MB-3365': 1, 'MB-3389': 1, 'MB-7074': 1, 'MB-5547': 1, 'MB-7002': 1, 'MB-6114': 1, 'MB-0243': 1, 'MB-7160': 1, 'MB-0241': 1, 'MB-0101': 1, 'MB-5556': 1, 'MB-7273': 1, 'MB-6122': 1, 'MB-6208': 1, 'MB-4933': 1, 'MB-4735': 1, 'MB-7042': 1, 'MB-0589': 1, 'MB-0106': 1, 'MB-2957': 1, 'MB-0568': 1, 'MB-0062': 1, 'MB-2770': 1, 'MB-0528': 1, 'MB-7079': 1, 'MB-0224': 1, 'MB-4702': 1, 'MB-5288': 1, 'MB-0487': 1, 'MB-0408': 1, 'MB-3412': 1, 'MB-6225': 1, 'MB-5206': 1, 'MB-0491': 1, 'MB-0127': 1, 'MB-7085': 1, 'MB-4928': 1, 'MB-0229': 1, 'MB-5205': 1, 'MB-7086': 1}</t>
+          <t>{'MB-5186': 4, 'MB-7066': 4, 'MB-5460': 4, 'MB-0544': 4, 'MB-4746': 4, 'MB-5648': 4, 'MB-5458': 4, 'MB-4896': 4, 'MB-0269': 4, 'MB-0226': 4, 'MB-0421': 4, 'MB-0489': 4, 'MB-7148': 4, 'MB-0578': 4, 'MB-5640': 4, 'MB-0244': 4, 'MB-7161': 4, 'MB-4865': 4, 'MB-4860': 4, 'MB-0478': 4, 'MB-2610': 4, 'MB-0282': 4, 'MB-0414': 4, 'MB-4978': 4, 'MB-5190': 4, 'MB-7080': 3, 'MB-4705': 3, 'MB-2900': 3, 'MB-5465': 3, 'MB-5592': 3, 'MB-0581': 3, 'MB-0393': 3, 'MB-2753': 3, 'MB-7124': 3, 'MB-0496': 3, 'MB-6154': 3, 'MB-6077': 3, 'MB-0263': 2, 'MB-5308': 2, 'MB-5322': 2, 'MB-4802': 2, 'MB-0495': 2, 'MB-5057': 2, 'MB-6014': 2, 'MB-0638': 2, 'MB-0442': 2, 'MB-5277': 2, 'MB-2760': 2, 'MB-7030': 2, 'MB-4010': 2, 'MB-4718': 2, 'MB-5623': 2, 'MB-5084': 2, 'MB-0482': 2, 'MB-4876': 2, 'MB-5422': 2, 'MB-2895': 2, 'MB-0634': 2, 'MB-5105': 2, 'MB-4987': 2, 'MB-4716': 2, 'MB-0294': 2, 'MB-0266': 2, 'MB-0371': 2, 'MB-0445': 2, 'MB-7026': 2, 'MB-4866': 2, 'MB-0363': 2, 'MB-5092': 2, 'MB-5261': 2, 'MB-3614': 2, 'MB-4722': 2, 'MB-2730': 2, 'MB-4623': 2, 'MB-6059': 2, 'MB-0359': 2, 'MB-0312': 2, 'MB-4289': 2, 'MB-7104': 2, 'MB-0586': 2, 'MB-0405': 2, 'MB-0564': 2, 'MB-0417': 2, 'MB-6100': 2, 'MB-4254': 2, 'MB-0125': 2, 'MB-2827': 2, 'MB-6047': 2, 'MB-7075': 2, 'MB-4313': 2, 'MB-7073': 2, 'MB-4651': 2, 'MB-2536': 2, 'MB-2840': 2, 'MB-0156': 2, 'MB-5049': 2, 'MB-7127': 2, 'MB-6053': 2, 'MB-0443': 2, 'MB-4952': 2, 'MB-3865': 2, 'MB-3167': 2, 'MB-5119': 2, 'MB-6346': 2, 'MB-4882': 2, 'MB-0202': 2, 'MB-0635': 2, 'MB-6334': 2, 'MB-5226': 2, 'MB-6055': 2, 'MB-6263': 2, 'MB-2984': 2, 'MB-0350': 2, 'MB-4883': 2, 'MB-3058': 2, 'MB-0455': 2, 'MB-5236': 2, 'MB-3386': 2, 'MB-4790': 1, 'MB-0309': 1, 'MB-0434': 1, 'MB-4871': 1, 'MB-2616': 1, 'MB-6022': 1, 'MB-7055': 1, 'MB-4126': 1, 'MB-7112': 1, 'MB-4434': 1, 'MB-4306': 1, 'MB-7138': 1, 'MB-0385': 1, 'MB-0165': 1, 'MB-0188': 1, 'MB-0636': 1, 'MB-5652': 1, 'MB-7193': 1, 'MB-3357': 1, 'MB-4146': 1, 'MB-0874': 1, 'MB-4529': 1, 'MB-3824': 1, 'MB-4333': 1, 'MB-6187': 1, 'MB-5081': 1, 'MB-3057': 1, 'MB-7250': 1, 'MB-6318': 1, 'MB-6207': 1, 'MB-2977': 1, 'MB-5280': 1, 'MB-6149': 1, 'MB-7200': 1, 'MB-5518': 1, 'MB-4846': 1, 'MB-7045': 1, 'MB-4416': 1, 'MB-6211': 1, 'MB-3707': 1, 'MB-2778': 1, 'MB-5299': 1, 'MB-7182': 1, 'MB-0591': 1, 'MB-4974': 1, 'MB-6058': 1, 'MB-0324': 1, 'MB-0444': 1, 'MB-0235': 1, 'MB-7243': 1, 'MB-7196': 1, 'MB-5413': 1, 'MB-5175': 1, 'MB-7099': 1, 'MB-4641': 1, 'MB-4869': 1, 'MB-0179': 1, 'MB-0608': 1, 'MB-5629': 1, 'MB-7061': 1, 'MB-0151': 1, 'MB-4381': 1, 'MB-4328': 1, 'MB-5427': 1, 'MB-2517': 1, 'MB-0306': 1, 'MB-5233': 1, 'MB-2752': 1, 'MB-7135': 1, 'MB-7217': 1, 'MB-3526': 1, 'MB-4601': 1, 'MB-5365': 1, 'MB-3104': 1, 'MB-5532': 1, 'MB-0526': 1, 'MB-2904': 1, 'MB-6283': 1, 'MB-4698': 1, 'MB-7144': 1, 'MB-5260': 1, 'MB-6218': 1, 'MB-0170': 1, 'MB-5332': 1, 'MB-0071': 1, 'MB-7097': 1, 'MB-4832': 1, 'MB-6020': 1, 'MB-5491': 1, 'MB-4643': 1, 'MB-4904': 1, 'MB-5513': 1, 'MB-7262': 1, 'MB-4685': 1, 'MB-5378': 1, 'MB-7267': 1, 'MB-6317': 1, 'MB-5139': 1, 'MB-0368': 1, 'MB-3360': 1, 'MB-4942': 1, 'MB-5635': 1, 'MB-0328': 1, 'MB-5414': 1, 'MB-3295': 1, 'MB-0305': 1, 'MB-5201': 1, 'MB-0349': 1, 'MB-0580': 1, 'MB-5001': 1, 'MB-0550': 1, 'MB-4421': 1, 'MB-5577': 1, 'MB-3548': 1, 'MB-7035': 1, 'MB-4139': 1, 'MB-0314': 1, 'MB-5431': 1, 'MB-6026': 1, 'MB-2643': 1, 'MB-0333': 1, 'MB-7289': 1, 'MB-0261': 1, 'MB-0392': 1, 'MB-0652': 1, 'MB-4966': 1, 'MB-7220': 1, 'MB-5434': 1, 'MB-4750': 1, 'MB-5559': 1, 'MB-4653': 1, 'MB-3266': 1, 'MB-0341': 1, 'MB-5102': 1, 'MB-7122': 1, 'MB-5579': 1, 'MB-7039': 1, 'MB-6082': 1, 'MB-4950': 1, 'MB-6200': 1, 'MB-7231': 1, 'MB-4886': 1, 'MB-5018': 1, 'MB-2850': 1, 'MB-7249': 1, 'MB-2556': 1, 'MB-6098': 1, 'MB-6044': 1, 'MB-6083': 1, 'MB-6006': 1, 'MB-2919': 1, 'MB-4644': 1, 'MB-7106': 1, 'MB-4408': 1, 'MB-0882': 1, 'MB-5433': 1, 'MB-4354': 1, 'MB-4878': 1, 'MB-7185': 1, 'MB-7252': 1, 'MB-0234': 1, 'MB-3031': 1, 'MB-5446': 1, 'MB-6178': 1, 'MB-6302': 1, 'MB-4721': 1, 'MB-5549': 1, 'MB-4017': 1, 'MB-7111': 1, 'MB-5313': 1, 'MB-5098': 1, 'MB-0365': 1, 'MB-4911': 1, 'MB-5143': 1, 'MB-5204': 1, 'MB-5053': 1, 'MB-5381': 1, 'MB-4725': 1, 'MB-5163': 1, 'MB-5109': 1, 'MB-5350': 1, 'MB-6051': 1, 'MB-4351': 1, 'MB-0401': 1, 'MB-4264': 1, 'MB-5240': 1, 'MB-2851': 1, 'MB-7158': 1, 'MB-0288': 1, 'MB-0311': 1, 'MB-5505': 1, 'MB-6016': 1, 'MB-4993': 1, 'MB-7100': 1, 'MB-0617': 1, 'MB-7237': 1, 'MB-0169': 1, 'MB-5267': 1, 'MB-2835': 1, 'MB-0083': 1, 'MB-4996': 1, 'MB-4733': 1, 'MB-5656': 1, 'MB-4681': 1, 'MB-4784': 1, 'MB-6217': 1, 'MB-0448': 1, 'MB-4250': 1, 'MB-4962': 1, 'MB-7078': 1, 'MB-4849': 1, 'MB-0354': 1, 'MB-4003': 1, 'MB-4859': 1, 'MB-6204': 1, 'MB-4937': 1, 'MB-7173': 1, 'MB-4982': 1, 'MB-0239': 1, 'MB-7287': 1, 'MB-0399': 1, 'MB-2847': 1, 'MB-4792': 1, 'MB-2758': 1, 'MB-4339': 1, 'MB-7215': 1, 'MB-7291': 1, 'MB-5457': 1, 'MB-0220': 1, 'MB-4046': 1, 'MB-3222': 1, 'MB-7195': 1, 'MB-3452': 1, 'MB-5100': 1, 'MB-4679': 1, 'MB-2754': 1, 'MB-7269': 1, 'MB-7263': 1, 'MB-6251': 1, 'MB-5272': 1, 'MB-2781': 1, 'MB-7046': 1, 'MB-5324': 1, 'MB-4994': 1, 'MB-4879': 1, 'MB-4696': 1, 'MB-0218': 1, 'MB-4621': 1, 'MB-4839': 1, 'MB-5530': 1, 'MB-5079': 1, 'MB-7029': 1, 'MB-5294': 1, 'MB-0535': 1, 'MB-2735': 1, 'MB-3046': 1, 'MB-3567': 1, 'MB-5329': 1, 'MB-4688': 1, 'MB-4695': 1, 'MB-4390': 1, 'MB-2842': 1, 'MB-5050': 1, 'MB-5526': 1, 'MB-5301': 1, 'MB-0364': 1, 'MB-5474': 1, 'MB-5418': 1, 'MB-5420': 1, 'MB-5453': 1, 'MB-5511': 1, 'MB-0140': 1, 'MB-5224': 1, 'MB-7079': 1, 'MB-7049': 1, 'MB-4212': 1, 'MB-2993': 1, 'MB-7056': 1, 'MB-6183': 1, 'MB-5039': 1, 'MB-0428': 1, 'MB-0573': 1, 'MB-2786': 1, 'MB-4079': 1, 'MB-5054': 1, 'MB-5426': 1, 'MB-0112': 1, 'MB-0599': 1, 'MB-3298': 1, 'MB-0320': 1, 'MB-0045': 1, 'MB-4745': 1, 'MB-5444': 1, 'MB-3871': 1, 'MB-4764': 1, 'MB-6280': 1, 'MB-0480': 1, 'MB-6224': 1, 'MB-0486': 1, 'MB-2769': 1, 'MB-5150': 1, 'MB-5533': 1, 'MB-4820': 1, 'MB-3487': 1, 'MB-4949': 1, 'MB-7091': 1, 'MB-5127': 1, 'MB-5199': 1, 'MB-5373': 1, 'MB-6344': 1, 'MB-4618': 1, 'MB-4665': 1, 'MB-6234': 1, 'MB-5450': 1, 'MB-0231': 1, 'MB-5341': 1, 'MB-4702': 1, 'MB-2819': 1, 'MB-0420': 1, 'MB-7065': 1, 'MB-5068': 1, 'MB-3866': 1, 'MB-5653': 1, 'MB-0624': 1, 'MB-4925': 1, 'MB-2771': 1, 'MB-5351': 1, 'MB-7074': 1, 'MB-5063': 1, 'MB-4762': 1, 'MB-0378': 1, 'MB-5251': 1, 'MB-7172': 1, 'MB-5118': 1, 'MB-0577': 1, 'MB-3462': 1, 'MB-4870': 1, 'MB-4843': 1, 'MB-0458': 1, 'MB-3600': 1, 'MB-7068': 1, 'MB-0121': 1, 'MB-4715': 1, 'MB-0157': 1, 'MB-0114': 1, 'MB-0497': 1, 'MB-4343': 1, 'MB-5393': 1, 'MB-2845': 1, 'MB-0299': 1, 'MB-4362': 1, 'MB-4141': 1, 'MB-7145': 1, 'MB-5395': 1, 'MB-2990': 1, 'MB-0303': 1, 'MB-6330': 1, 'MB-3037': 1, 'MB-7254': 1, 'MB-5066': 1, 'MB-0111': 1, 'MB-0452': 1, 'MB-0603': 1, 'MB-0222': 1, 'MB-3439': 1, 'MB-0110': 1, 'MB-5255': 1, 'MB-7241': 1, 'MB-7054': 1, 'MB-7006': 1, 'MB-5281': 1, 'MB-0657': 1, 'MB-0509': 1, 'MB-0295': 1, 'MB-0614': 1, 'MB-0048': 1, 'MB-4599': 1, 'MB-5041': 1, 'MB-0245': 1, 'MB-6052': 1, 'MB-4303': 1, 'MB-0592': 1, 'MB-4602': 1, 'MB-3008': 1, 'MB-0242': 1, 'MB-5558': 1, 'MB-5120': 1, 'MB-0880': 1, 'MB-7052': 1, 'MB-6253': 1, 'MB-3576': 1, 'MB-4763': 1, 'MB-0517': 1, 'MB-3854': 1, 'MB-0637': 1, 'MB-5130': 1, 'MB-2971': 1, 'MB-4024': 1, 'MB-3297': 1, 'MB-0501': 1, 'MB-0471': 1, 'MB-0469': 1, 'MB-0605': 1, 'MB-0906': 1, 'MB-0149': 1, 'MB-4603': 1, 'MB-4929': 1, 'MB-3005': 1, 'MB-0205': 1, 'MB-0437': 1, 'MB-6118': 1, 'MB-0467': 1, 'MB-0519': 1, 'MB-0588': 1, 'MB-5428': 1, 'MB-2792': 1, 'MB-0358': 1, 'MB-7123': 1, 'MB-3355': 1, 'MB-3606': 1, 'MB-2867': 1, 'MB-7031': 1, 'MB-7238': 1, 'MB-0290': 1, 'MB-0174': 1, 'MB-7295': 1, 'MB-7277': 1, 'MB-0199': 1, 'MB-0391': 1, 'MB-6185': 1, 'MB-0593': 1, 'MB-5219': 1, 'MB-0611': 1, 'MB-7044': 1, 'MB-0528': 1, 'MB-0124': 1, 'MB-5300': 1, 'MB-5364': 1, 'MB-5268': 1, 'MB-5525': 1, 'MB-5531': 1, 'MB-5576': 1, 'MB-4872': 1, 'MB-0490': 1, 'MB-0427': 1, 'MB-7228': 1, 'MB-0315': 1, 'MB-4709': 1, 'MB-0159': 1, 'MB-7132': 1, 'MB-2951': 1, 'MB-0002': 1, 'MB-7219': 1, 'MB-6103': 1, 'MB-5197': 1, 'MB-4760': 1, 'MB-0192': 1, 'MB-0265': 1, 'MB-7089': 1, 'MB-5117': 1, 'MB-0510': 1, 'MB-0285': 1, 'MB-3492': 1, 'MB-0374': 1, 'MB-5061': 1, 'MB-0610': 1, 'MB-4738': 1, 'MB-7005': 1, 'MB-0587': 1, 'MB-0639': 1, 'MB-5440': 1, 'MB-0130': 1, 'MB-7007': 1, 'MB-0128': 1, 'MB-4900': 1, 'MB-4666': 1, 'MB-6019': 1, 'MB-5492': 1, 'MB-3412': 1, 'MB-4992': 1, 'MB-4710': 1, 'MB-4853': 1, 'MB-7276': 1, 'MB-0559': 1, 'MB-0142': 1, 'MB-7266': 1, 'MB-0402': 1, 'MB-0134': 1, 'MB-3850': 1, 'MB-0122': 1, 'MB-0522': 1, 'MB-0479': 1, 'MB-0524': 1, 'MB-3381': 1, 'MB-5417': 1, 'MB-0310': 1, 'MB-5394': 1, 'MB-2721': 1, 'MB-4867': 1, 'MB-0318': 1, 'MB-2613': 1, 'MB-5291': 1, 'MB-0623': 1, 'MB-0663': 1, 'MB-5582': 1, 'MB-5641': 1, 'MB-0139': 1, 'MB-7085': 1, 'MB-7273': 1, 'MB-3001': 1, 'MB-0162': 1, 'MB-0508': 1, 'MB-4809': 1, 'MB-7067': 1, 'MB-5339': 1, 'MB-0379': 1, 'MB-0487': 1, 'MB-5178': 1, 'MB-0286': 1, 'MB-5164': 1, 'MB-0502': 1, 'MB-7094': 1, 'MB-0504': 1, 'MB-0499': 1, 'MB-0138': 1, 'MB-5218': 1, 'MB-5323': 1, 'MB-7101': 1, 'MB-4898': 1, 'MB-4934': 1, 'MB-0575': 1, 'MB-0438': 1, 'MB-6239': 1, 'MB-0059': 1, 'MB-0249': 1, 'MB-3329': 1, 'MB-0168': 1, 'MB-5386': 1, 'MB-0491': 1, 'MB-0534': 1, 'MB-3748': 1, 'MB-3403': 1, 'MB-4930': 1, 'MB-0116': 1, 'MB-5121': 1, 'MB-7168': 1, 'MB-0308': 1, 'MB-0232': 1, 'MB-2815': 1, 'MB-0172': 1, 'MB-0102': 1, 'MB-7230': 1, 'MB-0184': 1, 'MB-6116': 1, 'MB-0546': 1, 'MB-0113': 1, 'MB-0432': 1, 'MB-5541': 1, 'MB-0466': 1, 'MB-4091': 1, 'MB-0576': 1, 'MB-5407': 1, 'MB-4893': 1, 'MB-7131': 1, 'MB-6242': 1, 'MB-4661': 1, 'MB-0325': 1, 'MB-4897': 1, 'MB-6208': 1, 'MB-0388': 1, 'MB-6182': 1, 'MB-4607': 1, 'MB-0136': 1, 'MB-5162': 1, 'MB-5154': 1, 'MB-0228': 1}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -996,11 +996,11 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>1410</v>
+        <v>437</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'1:DECEASED': 1410, '0:LIVING': 1410}</t>
+          <t>{'1:DECEASED': 437, '0:LIVING': 437}</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2819</v>
+        <v>874</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -1036,11 +1036,11 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>1001</v>
+        <v>290</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'LumA': 1001, 'LumB': 666, 'Her2': 332, 'claudin-low': 310, 'Basal': 285, 'Normal': 216, 'NC': 9}</t>
+          <t>{'LumA': 290, 'LumB': 164, 'claudin-low': 125, 'Normal': 101, 'Her2': 94, 'Basal': 94, 'NC': 6}</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -1076,11 +1076,11 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2142</v>
+        <v>643</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'Positive': 2142, 'Negative': 678}</t>
+          <t>{'Positive': 643, 'Negative': 231}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2819</v>
+        <v>874</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -1116,11 +1116,11 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>1487</v>
+        <v>471</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'Positive': 1487, 'Negative': 1332}</t>
+          <t>{'Positive': 471, 'Negative': 403}</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2819</v>
+        <v>874</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -1156,11 +1156,11 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2463</v>
+        <v>753</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'Negative': 2463, 'Positive': 356}</t>
+          <t>{'Negative': 753, 'Positive': 121}</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2819</v>
+        <v>873</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -1196,11 +1196,11 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>1410</v>
+        <v>437</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'Living': 1410, 'Died of Disease': 797, 'Died of Other Causes': 612}</t>
+          <t>{'Living': 437, 'Died of Disease': 259, 'Died of Other Causes': 177}</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2819</v>
+        <v>873</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1236,11 +1236,11 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1789</v>
+        <v>544</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'0:Not Recurred': 1789, '1:Recurred': 1030}</t>
+          <t>{'0:Not Recurred': 544, '1:Recurred': 329}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2820</v>
+        <v>874</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1276,11 +1276,11 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2170</v>
+        <v>662</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'Breast Invasive Ductal Carcinoma': 2170, 'Breast Mixed Ductal and Lobular Carcinoma': 301, 'Breast Invasive Lobular Carcinoma': 219, 'Invasive Breast Carcinoma': 58, 'Breast Invasive Mixed Mucinous Carcinoma': 39, 'Breast': 29, 'Metaplastic Breast Cancer': 2, 'Breast Angiosarcoma': 2}</t>
+          <t>{'Breast Invasive Ductal Carcinoma': 662, 'Breast Mixed Ductal and Lobular Carcinoma': 89, 'Breast Invasive Lobular Carcinoma': 82, 'Invasive Breast Carcinoma': 23, 'Breast Invasive Mixed Mucinous Carcinoma': 11, 'Breast': 6, 'Metaplastic Breast Cancer': 1}</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2727</v>
+        <v>874</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1312,15 +1312,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1354</v>
+        <v>292</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'High': 1354, 'Moderate': 1070, 'Low': 303}</t>
+          <t>{'Moderate': 292, 'High': 291, 'Low': 291}</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2786</v>
+        <v>860</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>1665</v>
+        <v>517</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'MASTECTOMY': 1665, 'BREAST CONSERVING': 1121}</t>
+          <t>{'MASTECTOMY': 517, 'BREAST CONSERVING': 343}</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2819</v>
+        <v>874</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1396,11 +1396,11 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2176</v>
+        <v>656</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'Post': 2176, 'Pre': 643}</t>
+          <t>{'Post': 656, 'Pre': 218}</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1159</v>
+        <v>341</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1436,11 +1436,11 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>398</v>
+        <v>117</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'baseline': 398, 'month_12': 382, 'month_6': 379}</t>
+          <t>{'baseline': 117, 'month_6': 113, 'month_12': 111}</t>
         </is>
       </c>
     </row>
